--- a/data/trans_dic/P25A$molestias-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25A$molestias-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,58; 30,08</t>
+          <t>9,56; 29,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,78; 18,03</t>
+          <t>4,63; 17,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,74; 36,07</t>
+          <t>15,51; 34,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,69</t>
+          <t>0,0; 24,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,79; 40,88</t>
+          <t>9,6; 41,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,31; 35,87</t>
+          <t>12,49; 35,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,92; 23,43</t>
+          <t>6,95; 23,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,74; 21,93</t>
+          <t>7,98; 21,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,57; 31,13</t>
+          <t>16,4; 31,5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,68; 19,19</t>
+          <t>6,85; 18,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,48; 16,74</t>
+          <t>3,38; 16,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,33; 36,88</t>
+          <t>16,34; 35,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 30,24</t>
+          <t>3,64; 29,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,55</t>
+          <t>0,0; 10,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,05; 37,67</t>
+          <t>5,03; 35,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,94; 17,68</t>
+          <t>6,99; 17,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 11,49</t>
+          <t>2,86; 12,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,01; 31,49</t>
+          <t>14,92; 31,52</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,17 +906,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,73; 26,91</t>
+          <t>7,75; 28,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,85; 18,71</t>
+          <t>5,79; 19,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 11,63</t>
+          <t>1,17; 10,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -925,27 +926,27 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,78</t>
+          <t>0,0; 17,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 28,59</t>
+          <t>3,18; 26,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,67; 22,38</t>
+          <t>6,65; 22,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 15,41</t>
+          <t>4,41; 15,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 12,41</t>
+          <t>2,1; 12,11</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,45; 33,59</t>
+          <t>14,17; 33,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 15,09</t>
+          <t>3,94; 14,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 17,71</t>
+          <t>4,15; 17,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,03; 37,93</t>
+          <t>10,84; 37,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 19,62</t>
+          <t>2,14; 20,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,85; 21,14</t>
+          <t>3,96; 22,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,8; 31,35</t>
+          <t>16,52; 32,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,67; 14,08</t>
+          <t>4,53; 13,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,67; 15,66</t>
+          <t>5,6; 16,78</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,0</t>
+          <t>0,0; 13,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,41; 28,28</t>
+          <t>6,71; 29,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,64; 33,58</t>
+          <t>5,86; 35,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,66</t>
+          <t>0,0; 20,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,0; 36,82</t>
+          <t>7,14; 38,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,17; 63,12</t>
+          <t>17,55; 61,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 10,95</t>
+          <t>1,23; 11,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,76; 26,87</t>
+          <t>8,95; 26,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,42; 38,9</t>
+          <t>13,3; 38,78</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,22 +1236,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,13; 46,06</t>
+          <t>19,93; 44,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,57; 16,15</t>
+          <t>3,57; 15,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,28; 33,58</t>
+          <t>10,18; 34,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,34; 40,43</t>
+          <t>5,28; 40,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1265,24 +1266,24 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,21; 39,62</t>
+          <t>18,87; 39,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,9; 12,87</t>
+          <t>2,77; 12,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,71; 25,53</t>
+          <t>7,8; 25,8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,6; 35,18</t>
+          <t>17,48; 35,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,74; 17,54</t>
+          <t>6,5; 17,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,95; 26,91</t>
+          <t>12,09; 26,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,57; 39,98</t>
+          <t>9,0; 41,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,91; 15,41</t>
+          <t>1,97; 14,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,25; 19,09</t>
+          <t>5,06; 19,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,17; 33,56</t>
+          <t>18,02; 32,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,94; 14,08</t>
+          <t>5,82; 13,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,52; 21,2</t>
+          <t>11,12; 21,48</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>13,36; 25,98</t>
+          <t>13,29; 26,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,46; 22,1</t>
+          <t>8,52; 22,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,02; 15,92</t>
+          <t>4,72; 16,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,82; 26,99</t>
+          <t>8,75; 26,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,05; 22,19</t>
+          <t>4,96; 22,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,31; 19,26</t>
+          <t>3,2; 20,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,43; 23,68</t>
+          <t>13,06; 23,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,17; 19,32</t>
+          <t>8,73; 18,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,38; 14,52</t>
+          <t>5,33; 14,89</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15,9; 22,28</t>
+          <t>15,74; 21,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,59; 12,92</t>
+          <t>8,52; 13,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,8; 19,05</t>
+          <t>13,12; 19,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,68; 19,34</t>
+          <t>10,4; 19,27</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,96; 12,64</t>
+          <t>6,35; 12,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>10,05; 17,52</t>
+          <t>10,28; 17,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>15,24; 20,33</t>
+          <t>15,25; 20,38</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,31; 11,98</t>
+          <t>8,33; 11,93</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>12,82; 17,48</t>
+          <t>12,69; 17,37</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, las molestias por causa del tabaco</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8257</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7967</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>18694</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8864</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>11669</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9272</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>16832</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>30363</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4440; 13699</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3752; 14269</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>12249; 27413</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4884</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3843; 16470</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6492; 18687</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4622; 15405</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9668; 26381</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>21470; 41244</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13212</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9578</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17977</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2909</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4734</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16121</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11535</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22710</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7795; 21097</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4086; 20188</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>11817; 25968</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>942; 7732</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5980</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1474; 10299</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9765; 23865</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5177; 21767</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>15166; 32035</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10306</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9060</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2465</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>991</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2996</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10306</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10052</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5461</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4941; 17901</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4764; 15955</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>723; 6692</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1795</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5779</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>878; 7453</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5185; 17755</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5077; 17811</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1881; 10856</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>17584</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8709</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8161</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8965</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4005</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4665</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>26549</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>12714</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>12826</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10750; 25421</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4157; 15527</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3613; 15650</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4084; 14204</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>997; 9396</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1771; 9875</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>18757; 36737</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6876; 20605</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>7378; 22111</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1749</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7753</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5178</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4905</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6376</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2768</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>12658</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>11554</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5398</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3385; 14682</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1859; 11110</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5893</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1916; 10352</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2998; 10551</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>861; 7738</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6912; 20131</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6491; 18931</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>16656</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6961</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>9100</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3269</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>19926</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6961</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>9099</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>10538; 23263</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2969; 13010</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4518; 15268</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>993; 7563</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1888</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1770</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>13526; 28291</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2905; 13152</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>4774; 15780</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>23561</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>18072</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>23675</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>7652</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>9456</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>31213</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>23119</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>33131</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>16111; 33056</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>10565; 28162</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>15343; 33639</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2959; 13558</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1809; 13091</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>4272; 16105</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>22524; 41188</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>14799; 33785</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>23493; 45392</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>26475</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>18174</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>9802</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>11570</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>8350</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>5836</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>38044</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>26524</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>15638</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>18404; 36387</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>11096; 28875</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>4822; 16793</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>6314; 19098</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>3318; 14964</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2049; 12895</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>27512; 50505</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>17210; 36991</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>8844; 24724</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>117800</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>86275</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>95051</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>36399</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>34120</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>45732</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>154199</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>120395</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>140783</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>98278; 136992</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>69519; 107720</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>79415; 116761</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>26066; 48311</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>24537; 49587</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>34529; 59203</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>133501; 178395</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>100155; 143504</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>119428; 163504</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>